--- a/CleanData/EvaluationTVERone.xlsx
+++ b/CleanData/EvaluationTVERone.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="18240" tabRatio="989" activeTab="5"/>
+    <workbookView xWindow="-45620" yWindow="2560" windowWidth="25140" windowHeight="18240" tabRatio="989" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PreQOld" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="44">
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Unuversity Year</t>
-  </si>
-  <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>Average School  Math.</t>
-  </si>
-  <si>
-    <t>Average Univer. Math.</t>
-  </si>
-  <si>
-    <t>Compare with classmates</t>
-  </si>
   <si>
     <t>N1</t>
   </si>
@@ -167,6 +146,27 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>university year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculty   </t>
+  </si>
+  <si>
+    <t>asm</t>
+  </si>
+  <si>
+    <t>aum</t>
+  </si>
+  <si>
+    <t>cwc</t>
   </si>
 </sst>
 </file>
@@ -586,114 +586,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP53"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:P34"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:42" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E2" s="12">
         <v>4</v>
@@ -724,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H2" s="14">
         <v>4</v>
@@ -819,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E3" s="12">
         <v>4</v>
@@ -828,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H3" s="14">
         <v>4</v>
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E4" s="12">
         <v>4</v>
@@ -932,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H4" s="14">
         <v>2</v>
@@ -1027,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E5" s="12">
         <v>4</v>
@@ -1036,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H5" s="14">
         <v>3</v>
@@ -1131,7 +1131,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E6" s="12">
         <v>4</v>
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H6" s="14">
         <v>4</v>
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E7" s="12">
         <v>4</v>
@@ -1244,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H7" s="14">
         <v>1</v>
@@ -1339,7 +1339,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E8" s="12">
         <v>5</v>
@@ -1348,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H8" s="14">
         <v>3</v>
@@ -1443,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E9" s="12">
         <v>4</v>
@@ -1452,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H9" s="14">
         <v>2</v>
@@ -1547,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E10" s="12">
         <v>5</v>
@@ -1556,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H10" s="14">
         <v>2</v>
@@ -1651,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E11" s="12">
         <v>4</v>
@@ -1660,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H11" s="14">
         <v>1</v>
@@ -1755,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E12" s="12">
         <v>4</v>
@@ -1764,7 +1764,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H12" s="14">
         <v>3</v>
@@ -1859,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E13" s="12">
         <v>4</v>
@@ -1868,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H13" s="14">
         <v>3</v>
@@ -1963,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E14" s="12">
         <v>4</v>
@@ -1972,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H14" s="14">
         <v>3</v>
@@ -2067,7 +2067,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E15" s="12">
         <v>4</v>
@@ -2076,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H15" s="14">
         <v>2</v>
@@ -2171,7 +2171,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E16" s="12">
         <v>4</v>
@@ -2180,7 +2180,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H16" s="14">
         <v>3</v>
@@ -2275,7 +2275,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E17" s="12">
         <v>5</v>
@@ -2284,7 +2284,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H17" s="14">
         <v>2</v>
@@ -2379,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E18" s="12">
         <v>5</v>
@@ -2388,7 +2388,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18" s="14">
         <v>2</v>
@@ -2483,7 +2483,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E19" s="12">
         <v>5</v>
@@ -2492,7 +2492,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H19" s="14">
         <v>1</v>
@@ -2587,7 +2587,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E20" s="12">
         <v>5</v>
@@ -2596,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H20" s="14">
         <v>3</v>
@@ -2691,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E21" s="12">
         <v>5</v>
@@ -2700,7 +2700,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H21" s="14">
         <v>4</v>
@@ -2795,7 +2795,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E22" s="12">
         <v>5</v>
@@ -2804,7 +2804,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H22" s="14">
         <v>2</v>
@@ -2899,7 +2899,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E23" s="12">
         <v>5</v>
@@ -2908,7 +2908,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H23" s="14">
         <v>2</v>
@@ -3003,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E24" s="12">
         <v>4</v>
@@ -3012,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H24" s="14">
         <v>3</v>
@@ -4008,114 +4008,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK46"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:P46"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -4132,7 +4132,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -4141,7 +4141,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1">
         <v>5</v>
@@ -4236,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -4245,7 +4245,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1">
         <v>5</v>
@@ -4340,7 +4340,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
@@ -4349,7 +4349,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
@@ -4444,7 +4444,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -4453,7 +4453,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -4548,7 +4548,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -4557,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1">
         <v>6</v>
@@ -4652,7 +4652,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -4661,7 +4661,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
@@ -4756,7 +4756,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -4765,7 +4765,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -4860,7 +4860,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -4869,7 +4869,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H9" s="1">
         <v>4</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -4973,7 +4973,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>
@@ -5068,7 +5068,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -5077,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1">
         <v>2</v>
@@ -5172,7 +5172,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
@@ -5181,7 +5181,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
@@ -5285,7 +5285,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -5380,7 +5380,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
@@ -5389,7 +5389,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H14" s="1">
         <v>3</v>
@@ -5484,7 +5484,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
@@ -5588,7 +5588,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -5597,7 +5597,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H16" s="1">
         <v>5</v>
@@ -5692,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -5701,7 +5701,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
@@ -5796,7 +5796,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
@@ -5805,7 +5805,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18" s="1">
         <v>2</v>
@@ -5900,7 +5900,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
@@ -5909,7 +5909,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H19" s="1">
         <v>4</v>
@@ -6004,7 +6004,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -6013,7 +6013,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H20" s="1">
         <v>2</v>
@@ -6108,7 +6108,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
@@ -6117,7 +6117,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1">
         <v>3</v>
@@ -6212,7 +6212,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
@@ -6221,7 +6221,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H22" s="1">
         <v>3</v>
@@ -6316,7 +6316,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
@@ -6325,7 +6325,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H23" s="1">
         <v>5</v>
@@ -6420,7 +6420,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
@@ -6429,7 +6429,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H24" s="1">
         <v>2</v>
@@ -6524,7 +6524,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
@@ -6533,7 +6533,7 @@
         <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H25" s="1">
         <v>2</v>
@@ -6628,7 +6628,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
@@ -6637,7 +6637,7 @@
         <v>4</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H26" s="1">
         <v>4</v>
@@ -6732,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
@@ -6741,7 +6741,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H27" s="1">
         <v>3</v>
@@ -6836,7 +6836,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -6845,7 +6845,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H28" s="1">
         <v>2</v>
@@ -6940,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
@@ -6949,7 +6949,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H29" s="1">
         <v>5</v>
@@ -7044,7 +7044,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1">
         <v>4</v>
@@ -7053,7 +7053,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H30" s="1">
         <v>2</v>
@@ -7148,7 +7148,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1">
         <v>4</v>
@@ -7157,7 +7157,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H31" s="1">
         <v>3</v>
@@ -7252,7 +7252,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
@@ -7261,7 +7261,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H32" s="1">
         <v>3</v>
@@ -7356,7 +7356,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E33" s="1">
         <v>5</v>
@@ -7365,7 +7365,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H33" s="1">
         <v>3</v>
@@ -7460,7 +7460,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E34" s="1">
         <v>4</v>
@@ -7469,7 +7469,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H34" s="1">
         <v>3</v>
@@ -7564,7 +7564,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E35" s="1">
         <v>4</v>
@@ -7573,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H35" s="1">
         <v>2</v>
@@ -7668,7 +7668,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -7677,7 +7677,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
@@ -7912,13 +7912,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8408,114 +8408,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:Q43"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:42" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
@@ -8541,13 +8541,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H2" s="15">
         <v>4</v>
@@ -8646,13 +8646,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H3" s="15">
         <v>2</v>
@@ -8751,13 +8751,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H4" s="15">
         <v>2</v>
@@ -8856,13 +8856,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H5" s="15">
         <v>2</v>
@@ -8961,13 +8961,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H6" s="15">
         <v>2</v>
@@ -9066,13 +9066,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H7" s="15">
         <v>3</v>
@@ -9171,13 +9171,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H8" s="15">
         <v>4</v>
@@ -9276,13 +9276,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H9" s="15">
         <v>2</v>
@@ -9381,13 +9381,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H10" s="15">
         <v>3</v>
@@ -9486,13 +9486,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H11" s="15">
         <v>1</v>
@@ -9591,13 +9591,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H12" s="15">
         <v>4</v>
@@ -9696,13 +9696,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H13" s="15">
         <v>2</v>
@@ -9801,13 +9801,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H14" s="15">
         <v>4</v>
@@ -9906,13 +9906,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H15" s="15">
         <v>3</v>
@@ -10011,13 +10011,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H16" s="15">
         <v>3</v>
@@ -10116,13 +10116,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H17" s="15">
         <v>4</v>
@@ -10221,13 +10221,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18" s="15">
         <v>3</v>
@@ -10326,13 +10326,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H19" s="15">
         <v>3</v>
@@ -10431,13 +10431,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H20" s="15">
         <v>3</v>
@@ -10536,13 +10536,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H21" s="15">
         <v>3</v>
@@ -10641,13 +10641,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H22" s="15">
         <v>3</v>
@@ -10746,13 +10746,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H23" s="15">
         <v>4</v>
@@ -10851,13 +10851,13 @@
         <v>Faculty of Applied Mathematics and Cybernetics</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H24" s="15">
         <v>3</v>
@@ -10941,7 +10941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>1</v>
       </c>
@@ -10956,13 +10956,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H25" s="15">
         <v>1</v>
@@ -11046,7 +11046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>1</v>
       </c>
@@ -11061,13 +11061,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H26" s="15">
         <v>3</v>
@@ -11151,7 +11151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>1</v>
       </c>
@@ -11166,13 +11166,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H27" s="15">
         <v>4</v>
@@ -11256,7 +11256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>0</v>
       </c>
@@ -11271,13 +11271,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H28" s="15">
         <v>6</v>
@@ -11361,7 +11361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>0</v>
       </c>
@@ -11376,13 +11376,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H29" s="15">
         <v>2</v>
@@ -11466,7 +11466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>1</v>
       </c>
@@ -11481,13 +11481,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H30" s="15">
         <v>4</v>
@@ -11571,7 +11571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>1</v>
       </c>
@@ -11586,13 +11586,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H31" s="15">
         <v>2</v>
@@ -11872,114 +11872,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -12006,7 +12006,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -12111,7 +12111,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -12216,7 +12216,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -12321,7 +12321,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -12426,7 +12426,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -12531,7 +12531,7 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -12636,7 +12636,7 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -12741,7 +12741,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -12846,7 +12846,7 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -12951,7 +12951,7 @@
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -13056,7 +13056,7 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -13161,7 +13161,7 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -13266,7 +13266,7 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -13371,7 +13371,7 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -13476,7 +13476,7 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -13581,7 +13581,7 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -13686,7 +13686,7 @@
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -13791,7 +13791,7 @@
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -13896,7 +13896,7 @@
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -14001,7 +14001,7 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -14106,7 +14106,7 @@
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -14211,7 +14211,7 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -14316,7 +14316,7 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -14400,7 +14400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -14505,7 +14505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -14610,7 +14610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -14715,7 +14715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -14820,7 +14820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -14925,7 +14925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -15030,7 +15030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -15135,7 +15135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -15240,7 +15240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -15527,7 +15527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
@@ -15535,13 +15535,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
